--- a/字段.xlsx
+++ b/字段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21645" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -48,13 +48,10 @@
     <t>停止原因</t>
   </si>
   <si>
-    <t>是否开启</t>
-  </si>
-  <si>
     <t>是否结算</t>
   </si>
   <si>
-    <t>充电时间</t>
+    <t>充电时长</t>
   </si>
   <si>
     <t>充电度数</t>
@@ -69,7 +66,46 @@
     <t>更新日期</t>
   </si>
   <si>
+    <t>物理卡号-16Byte</t>
+  </si>
+  <si>
+    <t>逻辑卡号-16Byte</t>
+  </si>
+  <si>
+    <t>这是真实的电卡对应表</t>
+  </si>
+  <si>
+    <t>00000000D14B0A54</t>
+  </si>
+  <si>
+    <t>0000002010000001</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>logicId</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>虚拟物理卡号58开头，逻辑卡与物理卡相同，都是BCD编码</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>BIN编码</t>
+  </si>
+  <si>
+    <t>BCD编码</t>
+  </si>
+  <si>
     <t>逻辑卡号</t>
+  </si>
+  <si>
+    <t>订单号</t>
   </si>
   <si>
     <t>远程开机下发</t>
@@ -112,7 +148,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +166,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -472,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -503,6 +532,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -516,6 +571,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -524,6 +599,17 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,46 +619,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -678,48 +724,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,159 +778,180 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,265 +1302,354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:S17"/>
+  <dimension ref="A4:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
+    <row r="4" customHeight="1" spans="1:18">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:18">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:18">
+      <c r="A8" s="2"/>
+      <c r="B8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" customHeight="1" spans="6:7">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" customHeight="1" spans="7:7">
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" customHeight="1" spans="7:7">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:7">
-      <c r="A16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
+  <mergeCells count="14">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="E10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/字段.xlsx
+++ b/字段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21645" windowHeight="9960"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>虚拟物理卡号58开头，逻辑卡与物理卡相同，都是BCD编码</t>
+  </si>
+  <si>
+    <t>新注册的微信账户，需要分配逻辑卡号</t>
   </si>
   <si>
     <t>orderId</t>
@@ -869,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +953,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,7 +1311,7 @@
   <dimension ref="A4:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1418,11 +1424,11 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="2"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="8"/>
@@ -1440,7 +1446,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1465,15 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
+      <c r="J10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1469,12 +1482,22 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
-    </row>
-    <row r="12" customHeight="1" spans="6:7">
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+    </row>
+    <row r="12" customHeight="1" spans="6:14">
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -1482,17 +1505,27 @@
         <v>21</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="21"/>
       <c r="G13" s="21"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="23"/>
       <c r="D14" s="21"/>
       <c r="G14" s="21"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" customHeight="1" spans="7:7">
       <c r="G15" s="21"/>
@@ -1502,10 +1535,10 @@
     </row>
     <row r="18" customHeight="1" spans="2:3">
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
@@ -1514,128 +1547,128 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
@@ -1650,6 +1683,7 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G7:K8"/>
     <mergeCell ref="E10:H11"/>
+    <mergeCell ref="J10:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
